--- a/excel/GPU.xlsx
+++ b/excel/GPU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsuto\Desktop\Project\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deniel0\Documents\GitHub\Bootstrsap\Project\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099367DA-6B4E-4E83-886A-578C2B8DABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,45 +24,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>gpu_id</t>
-  </si>
-  <si>
-    <t>Manufacturer_id</t>
-  </si>
-  <si>
-    <t>length_id</t>
-  </si>
-  <si>
-    <t>Video chipset</t>
-  </si>
-  <si>
-    <t>Memory Size</t>
-  </si>
-  <si>
-    <t>Memory Type</t>
-  </si>
-  <si>
-    <t>Memory Bandwidth</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="115">
+  <si>
+    <t>GeForce GTX</t>
+  </si>
+  <si>
+    <t>1050Ti</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>GDDR5</t>
+  </si>
+  <si>
+    <t>1070Ti</t>
+  </si>
+  <si>
+    <t>1080Ti</t>
+  </si>
+  <si>
+    <t>GeForce RTX</t>
+  </si>
+  <si>
+    <t>1442 MHz</t>
+  </si>
+  <si>
+    <t>1569 MHz</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>1650S</t>
+  </si>
+  <si>
+    <t>1660Ti</t>
+  </si>
+  <si>
+    <t>2060S</t>
+  </si>
+  <si>
+    <t>2070S</t>
+  </si>
+  <si>
+    <t>2080S</t>
+  </si>
+  <si>
+    <t>2080Ti</t>
+  </si>
+  <si>
+    <t>3060Ti</t>
+  </si>
+  <si>
+    <t>3070Ti</t>
+  </si>
+  <si>
+    <t>3080Ti</t>
+  </si>
+  <si>
+    <t>GDDR6</t>
+  </si>
+  <si>
+    <t>3GB</t>
+  </si>
+  <si>
+    <t>6GB</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>10GB</t>
+  </si>
+  <si>
+    <t>11GB</t>
+  </si>
+  <si>
+    <t>12GB</t>
+  </si>
+  <si>
+    <t>24GB</t>
+  </si>
+  <si>
+    <t>1379 MHz</t>
+  </si>
+  <si>
+    <t>1506 MHz</t>
+  </si>
+  <si>
+    <t>1594 MHz</t>
+  </si>
+  <si>
+    <t>1809 MHz</t>
+  </si>
+  <si>
+    <t>1620 MHz</t>
+  </si>
+  <si>
+    <t>1873 MHz</t>
+  </si>
+  <si>
+    <t>1721 MHz</t>
+  </si>
+  <si>
+    <t>1607 MHz</t>
+  </si>
+  <si>
+    <t>1759 MHz</t>
+  </si>
+  <si>
+    <t>1936 MHz</t>
+  </si>
+  <si>
+    <t>1708 MHz</t>
+  </si>
+  <si>
+    <t>1392 MHz</t>
+  </si>
+  <si>
+    <t>1531 MHz</t>
+  </si>
+  <si>
+    <t>1354 MHz</t>
+  </si>
+  <si>
+    <t>1468 MHz</t>
+  </si>
+  <si>
+    <t>1556 MHz</t>
+  </si>
+  <si>
+    <t>1797 MHz</t>
+  </si>
+  <si>
+    <t>1582 MHz</t>
+  </si>
+  <si>
+    <t>GDDR6X</t>
+  </si>
+  <si>
+    <t>1771 MHz</t>
+  </si>
+  <si>
+    <t>1632 MHz</t>
+  </si>
+  <si>
+    <t>1657 MHz</t>
+  </si>
+  <si>
+    <t>1746 MHz</t>
+  </si>
+  <si>
+    <t>1410 MHz</t>
+  </si>
+  <si>
+    <t>1590 MHz</t>
+  </si>
+  <si>
+    <t>1530 MHz</t>
+  </si>
+  <si>
+    <t>1740 MHz</t>
+  </si>
+  <si>
+    <t>1680 MHz</t>
+  </si>
+  <si>
+    <t>1815 MHz</t>
+  </si>
+  <si>
+    <t>1660S</t>
+  </si>
+  <si>
+    <t>1845 MHz</t>
+  </si>
+  <si>
+    <t>1875 MHz</t>
+  </si>
+  <si>
+    <t>1500 MHz</t>
+  </si>
+  <si>
+    <t>1890 MHz</t>
+  </si>
+  <si>
+    <t>1860 MHz</t>
+  </si>
+  <si>
+    <t>1709 MHz</t>
+  </si>
+  <si>
+    <t>1683 MHz</t>
+  </si>
+  <si>
+    <t>1733 MHz</t>
+  </si>
+  <si>
+    <t>GDDR5X</t>
+  </si>
+  <si>
+    <t>1480 MHz</t>
+  </si>
+  <si>
+    <t>1365 MHz</t>
+  </si>
+  <si>
+    <t>1635 MHz</t>
+  </si>
+  <si>
+    <t>1935 MHz</t>
+  </si>
+  <si>
+    <t>1515 MHz</t>
+  </si>
+  <si>
+    <t>1650 MHz</t>
+  </si>
+  <si>
+    <t>1350 MHz</t>
+  </si>
+  <si>
+    <t>1770 MHz</t>
+  </si>
+  <si>
+    <t>1470 MHz</t>
+  </si>
+  <si>
+    <t>1605 MHz</t>
+  </si>
+  <si>
+    <t>1710 MHz</t>
+  </si>
+  <si>
+    <t>1320 MHz</t>
+  </si>
+  <si>
+    <t>1807 MHz</t>
+  </si>
+  <si>
+    <t>1905 MHz</t>
+  </si>
+  <si>
+    <t>1440 MHz</t>
+  </si>
+  <si>
+    <t>1395 MHz</t>
+  </si>
+  <si>
+    <t>1575 MHz</t>
+  </si>
+  <si>
+    <t>1867 MHz</t>
+  </si>
+  <si>
+    <t>1785 MHz</t>
+  </si>
+  <si>
+    <t>Radeon RX</t>
+  </si>
+  <si>
+    <t>5500 XT</t>
+  </si>
+  <si>
+    <t>5600 XT</t>
+  </si>
+  <si>
+    <t>5700 XT</t>
+  </si>
+  <si>
+    <t>6600 XT</t>
+  </si>
+  <si>
+    <t>6700 XT</t>
+  </si>
+  <si>
+    <t>6800 XT</t>
+  </si>
+  <si>
+    <t>6900 XT</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>1865 MHz</t>
+  </si>
+  <si>
+    <t>1247 MHz</t>
+  </si>
+  <si>
+    <t>1610 MHz</t>
+  </si>
+  <si>
+    <t>1750 MHz</t>
+  </si>
+  <si>
+    <t>2035 MHz</t>
+  </si>
+  <si>
+    <t>1626 MHz</t>
+  </si>
+  <si>
+    <t>2491 MHz</t>
+  </si>
+  <si>
+    <t>1968 MHz</t>
+  </si>
+  <si>
+    <t>2607 MHz</t>
+  </si>
+  <si>
+    <t>2321 MHz</t>
+  </si>
+  <si>
+    <t>2581 MHz</t>
+  </si>
+  <si>
+    <t>1825 MHz</t>
+  </si>
+  <si>
+    <t>2340 MHz</t>
+  </si>
+  <si>
+    <t>1700 MHz</t>
+  </si>
+  <si>
+    <t>2190 MHz</t>
+  </si>
+  <si>
+    <t>2015 MHz</t>
+  </si>
+  <si>
+    <t>2365 MHz</t>
+  </si>
+  <si>
+    <t>2310 MHz</t>
+  </si>
+  <si>
+    <t>2155 MHz</t>
+  </si>
+  <si>
+    <t>1685 MHz</t>
+  </si>
+  <si>
+    <t>1565 MHz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,6 +388,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,12 +411,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,65 +696,2320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1080</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1080</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1650</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1650</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1660</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1660</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1060</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1080</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="D32" s="2">
+        <v>2060</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2070</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2080</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2060</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2070</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2080</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3060</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3070</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3080</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3090</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3060</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3070</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3080</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3090</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6600</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6800</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I69" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5700</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6600</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="2">
+        <v>6800</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I77" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" s="1">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>